--- a/06_MikrovlnInterfer/data/tloustka.xlsx
+++ b/06_MikrovlnInterfer/data/tloustka.xlsx
@@ -1,51 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\PraktikumPlazma\06_MikrovlnInterfer\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE2E44E-41A9-49CB-88BB-D4B8B38D5542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="84" windowWidth="30660" windowHeight="13776"/>
+    <workbookView xWindow="21000" yWindow="2715" windowWidth="7590" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>delka tyce [mm]</t>
-  </si>
-  <si>
-    <t>uhel mezi [deg]/[rad]</t>
-  </si>
-  <si>
-    <t>prumer zarivky [mm]</t>
-  </si>
-  <si>
-    <t>pricny rozmer vlnovodu [mm]</t>
-  </si>
-  <si>
-    <t>objem tyce [mm3]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>vyska/hloubka desky (prav.4bok) podobneho objemu [mm]</t>
   </si>
   <si>
     <t>hloubka \delta z [mm] / [m]</t>
+  </si>
+  <si>
+    <t>delka tyce l [mm]</t>
+  </si>
+  <si>
+    <t>objem tyce Vv [mm3]</t>
+  </si>
+  <si>
+    <t>pricny rozmer vlnovodu b [mm]</t>
+  </si>
+  <si>
+    <t>prumer zarivky d [mm]</t>
+  </si>
+  <si>
+    <t>uhel alpha [deg]/[rad]</t>
+  </si>
+  <si>
+    <t>f_krit</t>
+  </si>
+  <si>
+    <t>lambda_krit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -88,16 +112,16 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -105,12 +129,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -152,7 +179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,9 +212,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,6 +264,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -395,23 +456,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B1">
         <v>35</v>
@@ -421,52 +483,52 @@
         <v>0.6108652381980153</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <f>B3/SIN(C1)</f>
         <v>149.93642442341445</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <f>B5*PI()*B2^2/4</f>
         <v>38154.172727403726</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
         <f>SQRT(B6/B3)</f>
         <v>21.063076015835875</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" s="3">
         <f>B6/B3/B2</f>
@@ -475,6 +537,30 @@
       <c r="C8" s="5">
         <f>B8*0.001</f>
         <v>2.4647398402715584E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>PI()*B2/4/SIN(C1)</f>
+        <v>24.647398402715584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f>2*B3/1000</f>
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <f>300000000/B10*0.000000001</f>
+        <v>1.7441860465116283</v>
       </c>
     </row>
   </sheetData>
@@ -484,24 +570,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/06_MikrovlnInterfer/data/tloustka.xlsx
+++ b/06_MikrovlnInterfer/data/tloustka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\PraktikumPlazma\06_MikrovlnInterfer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE2E44E-41A9-49CB-88BB-D4B8B38D5542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09EA4AC-AC79-4174-8858-15A168FCA3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21000" yWindow="2715" windowWidth="7590" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3804" yWindow="3804" windowWidth="30960" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,18 +460,18 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -483,7 +483,7 @@
         <v>0.6108652381980153</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -491,7 +491,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -499,7 +499,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -508,7 +508,7 @@
         <v>149.93642442341445</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -517,7 +517,7 @@
         <v>38154.172727403726</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -526,7 +526,7 @@
         <v>21.063076015835875</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -539,13 +539,13 @@
         <v>2.4647398402715584E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9">
         <f>PI()*B2/4/SIN(C1)</f>
         <v>24.647398402715584</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -554,7 +554,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -575,7 +575,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -587,7 +587,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/06_MikrovlnInterfer/data/tloustka.xlsx
+++ b/06_MikrovlnInterfer/data/tloustka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\PraktikumPlazma\06_MikrovlnInterfer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09EA4AC-AC79-4174-8858-15A168FCA3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E8F87E-9EF8-4990-92A0-B75D998D82F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3804" yWindow="3804" windowWidth="30960" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>vyska/hloubka desky (prav.4bok) podobneho objemu [mm]</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>lambda_krit</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -457,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,7 +474,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -483,7 +486,7 @@
         <v>0.6108652381980153</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -491,7 +494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -499,7 +502,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -508,7 +511,7 @@
         <v>149.93642442341445</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -517,7 +520,7 @@
         <v>38154.172727403726</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -526,7 +529,7 @@
         <v>21.063076015835875</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -538,14 +541,18 @@
         <f>B8*0.001</f>
         <v>2.4647398402715584E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="2">
+        <f>PI()*B2^2/4/B3/SIN(C1)</f>
+        <v>5.1587578052195404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9">
         <f>PI()*B2/4/SIN(C1)</f>
         <v>24.647398402715584</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -554,13 +561,22 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11">
         <f>300000000/B10*0.000000001</f>
         <v>1.7441860465116283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <f>PI()*(B2/1000)^2/4</f>
+        <v>2.5446900494077322E-4</v>
       </c>
     </row>
   </sheetData>

--- a/06_MikrovlnInterfer/data/tloustka.xlsx
+++ b/06_MikrovlnInterfer/data/tloustka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\PraktikumPlazma\06_MikrovlnInterfer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E8F87E-9EF8-4990-92A0-B75D998D82F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F8BABD-E94D-4A5E-9D0E-F9B463840367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="3840" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>vyska/hloubka desky (prav.4bok) podobneho objemu [mm]</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>pricny rozmer vlnovodu a [mm]</t>
   </si>
 </sst>
 </file>
@@ -463,7 +466,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,10 +499,19 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <f>43</f>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -542,8 +554,8 @@
         <v>2.4647398402715584E-2</v>
       </c>
       <c r="D8" s="2">
-        <f>PI()*B2^2/4/B3/SIN(C1)</f>
-        <v>5.1587578052195404</v>
+        <f>PI()*B2^2/4/B4/SIN(C1)</f>
+        <v>10.317515610439081</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
